--- a/data/trans_orig/DC-Edad-trans_orig.xlsx
+++ b/data/trans_orig/DC-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>21003</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13600</v>
+        <v>12679</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>33120</v>
+        <v>31826</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04251076644836758</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02752587269829776</v>
+        <v>0.02566189898008151</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06703681252654813</v>
+        <v>0.06441738086207768</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>105</v>
@@ -765,19 +765,19 @@
         <v>98937</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>83691</v>
+        <v>81296</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>118024</v>
+        <v>115065</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2116352999107046</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1790215685588079</v>
+        <v>0.1738985028384402</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2524633491833499</v>
+        <v>0.2461343422434765</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>126</v>
@@ -786,19 +786,19 @@
         <v>119940</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>100729</v>
+        <v>101489</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>139642</v>
+        <v>139947</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1247359562555552</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1047561184204763</v>
+        <v>0.1055467942119184</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.145225373994856</v>
+        <v>0.1455425367293398</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>473061</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>460944</v>
+        <v>462238</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>480464</v>
+        <v>481385</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9574892335516324</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9329631874734517</v>
+        <v>0.9355826191379218</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9724741273017022</v>
+        <v>0.9743381010199185</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>384</v>
@@ -836,19 +836,19 @@
         <v>368552</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>349465</v>
+        <v>352424</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>383798</v>
+        <v>386193</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7883647000892955</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7475366508166499</v>
+        <v>0.7538656577565235</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8209784314411921</v>
+        <v>0.8261014971615598</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>862</v>
@@ -857,19 +857,19 @@
         <v>841613</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>821911</v>
+        <v>821606</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>860824</v>
+        <v>860064</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8752640437444448</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8547746260051441</v>
+        <v>0.85445746327066</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8952438815795237</v>
+        <v>0.8944532057880816</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>64146</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>50053</v>
+        <v>49876</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>80823</v>
+        <v>80693</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08721588061509136</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06805348736196148</v>
+        <v>0.06781397045480721</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1098907337499362</v>
+        <v>0.1097132509555311</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>147</v>
@@ -982,19 +982,19 @@
         <v>154947</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>132407</v>
+        <v>135462</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>178011</v>
+        <v>176851</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2477194807295936</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2116841337734893</v>
+        <v>0.2165680720308297</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2845922068375849</v>
+        <v>0.2827387544077491</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>210</v>
@@ -1003,19 +1003,19 @@
         <v>219093</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>192379</v>
+        <v>194806</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>245778</v>
+        <v>251305</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1609817189237498</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1413531051208148</v>
+        <v>0.1431362151852384</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1805887067500071</v>
+        <v>0.1846494922362273</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>671343</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>654666</v>
+        <v>654796</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>685436</v>
+        <v>685613</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9127841193849087</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8901092662500638</v>
+        <v>0.8902867490444688</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9319465126380386</v>
+        <v>0.9321860295451928</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>444</v>
@@ -1053,19 +1053,19 @@
         <v>470547</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>447483</v>
+        <v>448643</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>493087</v>
+        <v>490032</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7522805192704064</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.715407793162415</v>
+        <v>0.7172612455922509</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7883158662265106</v>
+        <v>0.7834319279691705</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1084</v>
@@ -1074,19 +1074,19 @@
         <v>1141889</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1115204</v>
+        <v>1109677</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1168603</v>
+        <v>1166176</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8390182810762502</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.819411293249993</v>
+        <v>0.8153505077637726</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8586468948791851</v>
+        <v>0.8568637848147616</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>99075</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>81800</v>
+        <v>81779</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>116199</v>
+        <v>119796</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.155127340835026</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1280795641388151</v>
+        <v>0.128045643937291</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1819390268316787</v>
+        <v>0.1875721431718823</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>148</v>
@@ -1199,19 +1199,19 @@
         <v>155284</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>134590</v>
+        <v>133434</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>179597</v>
+        <v>178416</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2251334248240092</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1951306056565283</v>
+        <v>0.1934548528142283</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2603824067532932</v>
+        <v>0.2586701656065777</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>248</v>
@@ -1220,19 +1220,19 @@
         <v>254359</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>225452</v>
+        <v>226571</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>285084</v>
+        <v>282536</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1914762296642046</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1697156306769281</v>
+        <v>0.1705578091017985</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2146053106751208</v>
+        <v>0.2126870011501678</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>539593</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>522469</v>
+        <v>518872</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>556868</v>
+        <v>556889</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.844872659164974</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8180609731683213</v>
+        <v>0.8124278568281171</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8719204358611848</v>
+        <v>0.8719543560627089</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>510</v>
@@ -1270,19 +1270,19 @@
         <v>534460</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>510147</v>
+        <v>511328</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>555154</v>
+        <v>556310</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7748665751759909</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7396175932467064</v>
+        <v>0.7413298343934223</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8048693943434716</v>
+        <v>0.8065451471857716</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1023</v>
@@ -1291,19 +1291,19 @@
         <v>1074053</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1043328</v>
+        <v>1045876</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1102960</v>
+        <v>1101841</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8085237703357955</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7853946893248791</v>
+        <v>0.7873129988498316</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8302843693230716</v>
+        <v>0.8294421908982014</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>109135</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>91897</v>
+        <v>89284</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>132588</v>
+        <v>126648</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2102190346258589</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1770156188289224</v>
+        <v>0.1719821567762445</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2553958069137694</v>
+        <v>0.2439548772860191</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>141</v>
@@ -1416,19 +1416,19 @@
         <v>142548</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>123081</v>
+        <v>122111</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>163374</v>
+        <v>162922</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2764478692685083</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2386937074369682</v>
+        <v>0.2368143536421292</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3168360262426901</v>
+        <v>0.3159604315754729</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>246</v>
@@ -1437,19 +1437,19 @@
         <v>251683</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>224920</v>
+        <v>224199</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>277839</v>
+        <v>279062</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2432212863012894</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2173584772266387</v>
+        <v>0.2166613286599456</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2684978510873458</v>
+        <v>0.2696798399208629</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>410012</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>386559</v>
+        <v>392499</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>427250</v>
+        <v>429863</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7897809653741411</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7446041930862306</v>
+        <v>0.7560451227139809</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8229843811710776</v>
+        <v>0.8280178432237559</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>361</v>
@@ -1487,19 +1487,19 @@
         <v>373094</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>352268</v>
+        <v>352720</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>392561</v>
+        <v>393531</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7235521307314917</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6831639737573085</v>
+        <v>0.6840395684245272</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7613062925630315</v>
+        <v>0.7631856463578709</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>740</v>
@@ -1508,19 +1508,19 @@
         <v>783106</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>756950</v>
+        <v>755727</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>809869</v>
+        <v>810590</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7567787136987106</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7315021489126542</v>
+        <v>0.7303201600791371</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7826415227733614</v>
+        <v>0.783338671340055</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>123390</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>104102</v>
+        <v>105296</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>141418</v>
+        <v>141454</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3190762271312767</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2691982664962949</v>
+        <v>0.2722855925176275</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3656956773731128</v>
+        <v>0.3657893830281295</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>122</v>
@@ -1633,19 +1633,19 @@
         <v>124085</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>107147</v>
+        <v>106731</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>142628</v>
+        <v>141696</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3071511769678447</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2652240505268927</v>
+        <v>0.26419595275243</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3530527710061703</v>
+        <v>0.3507458425155703</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>246</v>
@@ -1654,19 +1654,19 @@
         <v>247475</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>221250</v>
+        <v>222138</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>272933</v>
+        <v>276153</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.312983426638536</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2798162464464277</v>
+        <v>0.2809401388312192</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.345180913900795</v>
+        <v>0.3492526783246319</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>263320</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>245292</v>
+        <v>245256</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>282608</v>
+        <v>281414</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6809237728687233</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6343043226268872</v>
+        <v>0.6342106169718704</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.730801733503705</v>
+        <v>0.7277144074823725</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>274</v>
@@ -1704,19 +1704,19 @@
         <v>279901</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>261358</v>
+        <v>262290</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>296839</v>
+        <v>297255</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6928488230321553</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6469472289938296</v>
+        <v>0.6492541574844296</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7347759494731073</v>
+        <v>0.7358040472475699</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>542</v>
@@ -1725,19 +1725,19 @@
         <v>543221</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>517763</v>
+        <v>514543</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>569446</v>
+        <v>568558</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.687016573361464</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6548190860992049</v>
+        <v>0.6507473216753682</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7201837535535723</v>
+        <v>0.7190598611687808</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>79916</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>65634</v>
+        <v>65885</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>94494</v>
+        <v>95140</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2731403253816676</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2243250906735368</v>
+        <v>0.2251840140292986</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3229631446545084</v>
+        <v>0.325172111466341</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>154</v>
@@ -1850,19 +1850,19 @@
         <v>141399</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>125227</v>
+        <v>125075</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>158365</v>
+        <v>157137</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4123203360685362</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3651627730764345</v>
+        <v>0.3647213372438964</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4617940776683814</v>
+        <v>0.4582140814447594</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>240</v>
@@ -1871,19 +1871,19 @@
         <v>221315</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>199803</v>
+        <v>200966</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>241451</v>
+        <v>245339</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3482438359178403</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3143939592311081</v>
+        <v>0.3162245260208555</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3799277362963848</v>
+        <v>0.3860465581064131</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>212667</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>198089</v>
+        <v>197443</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>226949</v>
+        <v>226698</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7268596746183323</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6770368553454916</v>
+        <v>0.6748278885336589</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7756749093264632</v>
+        <v>0.7748159859707014</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>217</v>
@@ -1921,19 +1921,19 @@
         <v>201535</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>184569</v>
+        <v>185797</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>217707</v>
+        <v>217859</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5876796639314639</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5382059223316186</v>
+        <v>0.5417859185552406</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6348372269235655</v>
+        <v>0.6352786627561037</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>434</v>
@@ -1942,19 +1942,19 @@
         <v>414202</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>394066</v>
+        <v>390178</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>435714</v>
+        <v>434551</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6517561640821598</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6200722637036151</v>
+        <v>0.6139534418935869</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6856060407688918</v>
+        <v>0.6837754739791444</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>77068</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>64108</v>
+        <v>65542</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>90671</v>
+        <v>91045</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3671932826271613</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3054444709275483</v>
+        <v>0.3122779371742844</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4320076772938163</v>
+        <v>0.4337889398793732</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>108</v>
@@ -2067,19 +2067,19 @@
         <v>124396</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>105659</v>
+        <v>107618</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>143804</v>
+        <v>143408</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3725464203671019</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3164312374714804</v>
+        <v>0.3222991099385136</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4306693979059836</v>
+        <v>0.429483570473315</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>190</v>
@@ -2088,19 +2088,19 @@
         <v>201464</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>178834</v>
+        <v>179259</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>223409</v>
+        <v>225843</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3704803092206319</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3288661316786783</v>
+        <v>0.3296461435437253</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4108355057581002</v>
+        <v>0.4153118125995039</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>132815</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>119212</v>
+        <v>118838</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>145775</v>
+        <v>144341</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6328067173728387</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5679923227061837</v>
+        <v>0.5662110601206267</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6945555290724518</v>
+        <v>0.6877220628257156</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>182</v>
@@ -2138,19 +2138,19 @@
         <v>209512</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>190104</v>
+        <v>190500</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>228249</v>
+        <v>226290</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6274535796328981</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5693306020940164</v>
+        <v>0.5705164295266851</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6835687625285196</v>
+        <v>0.6777008900614866</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>320</v>
@@ -2159,19 +2159,19 @@
         <v>342327</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>320382</v>
+        <v>317948</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>364957</v>
+        <v>364532</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6295196907793681</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5891644942418998</v>
+        <v>0.5846881874004961</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6711338683213217</v>
+        <v>0.6703538564562748</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>573733</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>530441</v>
+        <v>532086</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>620210</v>
+        <v>619832</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1751029989024037</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1618905206920286</v>
+        <v>0.1623923853002687</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1892878605079261</v>
+        <v>0.1891724274415356</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>925</v>
@@ -2284,19 +2284,19 @@
         <v>941596</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>884138</v>
+        <v>891804</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>990942</v>
+        <v>994136</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2786450258329519</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2616413171511848</v>
+        <v>0.2639099896210026</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2932478552859332</v>
+        <v>0.2941929418440574</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1506</v>
@@ -2305,19 +2305,19 @@
         <v>1515329</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1448835</v>
+        <v>1445443</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1590302</v>
+        <v>1581967</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2276724961502341</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2176820189290559</v>
+        <v>0.2171723100018029</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2389368517180863</v>
+        <v>0.2376845745391781</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>2702810</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2656333</v>
+        <v>2656711</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2746102</v>
+        <v>2744457</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8248970010975962</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8107121394920738</v>
+        <v>0.8108275725584642</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8381094793079711</v>
+        <v>0.8376076146997313</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2372</v>
@@ -2355,19 +2355,19 @@
         <v>2437601</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2388255</v>
+        <v>2385061</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2495059</v>
+        <v>2487393</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7213549741670481</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7067521447140668</v>
+        <v>0.7058070581559426</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7383586828488152</v>
+        <v>0.7360900103789972</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5005</v>
@@ -2376,19 +2376,19 @@
         <v>5140412</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5065439</v>
+        <v>5073774</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5206906</v>
+        <v>5210298</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7723275038497659</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7610631482819139</v>
+        <v>0.762315425460822</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.782317981070945</v>
+        <v>0.7828276899981977</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>17253</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9885</v>
+        <v>10644</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27386</v>
+        <v>27111</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03799035316682278</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02176644928030124</v>
+        <v>0.02343731204589544</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06030179385448208</v>
+        <v>0.05969709146922105</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>65</v>
@@ -2744,19 +2744,19 @@
         <v>67483</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>54787</v>
+        <v>53293</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>84130</v>
+        <v>83693</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.156853987750064</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.127342779231079</v>
+        <v>0.1238717658292665</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1955462289496492</v>
+        <v>0.1945301041291606</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>81</v>
@@ -2765,19 +2765,19 @@
         <v>84736</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>67737</v>
+        <v>67993</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>102679</v>
+        <v>102988</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09581494445299572</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07659327336734081</v>
+        <v>0.0768820364123443</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1161028506291481</v>
+        <v>0.1164531253084108</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>436893</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>426760</v>
+        <v>427035</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>444261</v>
+        <v>443502</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9620096468331772</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.939698206145518</v>
+        <v>0.9403029085307787</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9782335507196989</v>
+        <v>0.9765626879541045</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>356</v>
@@ -2815,19 +2815,19 @@
         <v>362747</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>346100</v>
+        <v>346537</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>375443</v>
+        <v>376937</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.843146012249936</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8044537710503509</v>
+        <v>0.8054698958708394</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8726572207689209</v>
+        <v>0.8761282341707336</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>786</v>
@@ -2836,19 +2836,19 @@
         <v>799640</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>781697</v>
+        <v>781388</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>816639</v>
+        <v>816383</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9041850555470042</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.883897149370852</v>
+        <v>0.8835468746915892</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9234067266326592</v>
+        <v>0.9231179635876556</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>39496</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>28662</v>
+        <v>27070</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>53520</v>
+        <v>54760</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05748282679097004</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04171579721424784</v>
+        <v>0.03939839375125688</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07789346624794692</v>
+        <v>0.07969858837754722</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>84</v>
@@ -2961,19 +2961,19 @@
         <v>89191</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>72224</v>
+        <v>70583</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>106434</v>
+        <v>108506</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.146152947778501</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1183499282957599</v>
+        <v>0.1156614029252518</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1744083272123916</v>
+        <v>0.1778046771201443</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>122</v>
@@ -2982,19 +2982,19 @@
         <v>128686</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>107540</v>
+        <v>109193</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>152538</v>
+        <v>153810</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09919226209384169</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08289267826228264</v>
+        <v>0.08416705145790726</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1175775650645469</v>
+        <v>0.1185574695245722</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>647591</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>633567</v>
+        <v>632327</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>658425</v>
+        <v>660017</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9425171732090299</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.922106533752053</v>
+        <v>0.9203014116224527</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9582842027857522</v>
+        <v>0.960601606248743</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>487</v>
@@ -3032,19 +3032,19 @@
         <v>521064</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>503821</v>
+        <v>501749</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>538031</v>
+        <v>539672</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8538470522214989</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8255916727876084</v>
+        <v>0.8221953228798561</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8816500717042404</v>
+        <v>0.8843385970747484</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1116</v>
@@ -3053,19 +3053,19 @@
         <v>1168656</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1144804</v>
+        <v>1143532</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1189802</v>
+        <v>1188149</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9008077379061583</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8824224349354534</v>
+        <v>0.8814425304754276</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9171073217377175</v>
+        <v>0.9158329485420926</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>50853</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>39129</v>
+        <v>37246</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>66141</v>
+        <v>66421</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07457908338469041</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05738577475226029</v>
+        <v>0.05462347084831955</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09700019667754115</v>
+        <v>0.09741061134895759</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>137</v>
@@ -3178,19 +3178,19 @@
         <v>143601</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>121302</v>
+        <v>123490</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>166790</v>
+        <v>166858</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.202012511750838</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1706439805417346</v>
+        <v>0.1737212809160867</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2346352673832677</v>
+        <v>0.23473065341123</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>187</v>
@@ -3199,19 +3199,19 @@
         <v>194453</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>168251</v>
+        <v>170304</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>221911</v>
+        <v>223824</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1396219552798863</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1208081891906576</v>
+        <v>0.122282132368114</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1593375851264208</v>
+        <v>0.1607110169234761</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>631010</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>615722</v>
+        <v>615442</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>642734</v>
+        <v>644617</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9254209166153096</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9029998033224584</v>
+        <v>0.902589388651042</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9426142252477391</v>
+        <v>0.9453765291516805</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>530</v>
@@ -3249,19 +3249,19 @@
         <v>567249</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>544060</v>
+        <v>543992</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>589548</v>
+        <v>587360</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.797987488249162</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7653647326167322</v>
+        <v>0.7652693465887697</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8293560194582653</v>
+        <v>0.826278719083913</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1131</v>
@@ -3270,19 +3270,19 @@
         <v>1198259</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1170801</v>
+        <v>1168888</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1224461</v>
+        <v>1222408</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8603780447201137</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8406624148735791</v>
+        <v>0.839288983076524</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8791918108093424</v>
+        <v>0.8777178676318862</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>60403</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>46794</v>
+        <v>45908</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>77703</v>
+        <v>78003</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09827690566957782</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07613545814717779</v>
+        <v>0.07469307142242013</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1264253130061995</v>
+        <v>0.126913389484606</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>115</v>
@@ -3395,19 +3395,19 @@
         <v>128934</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>109551</v>
+        <v>107977</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>152358</v>
+        <v>150444</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2092411161929228</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1777855357250743</v>
+        <v>0.1752307196886053</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2472543269813989</v>
+        <v>0.2441478094458416</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>171</v>
@@ -3416,19 +3416,19 @@
         <v>189337</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>159408</v>
+        <v>162430</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>212936</v>
+        <v>216956</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1538303425178254</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1295144585132874</v>
+        <v>0.1319695788746932</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1730041573980077</v>
+        <v>0.1762698574322553</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>554214</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>536914</v>
+        <v>536614</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>567823</v>
+        <v>568709</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9017230943304222</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8735746869937999</v>
+        <v>0.8730866105153934</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9238645418528222</v>
+        <v>0.9253069285775798</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>424</v>
@@ -3466,19 +3466,19 @@
         <v>487265</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>463841</v>
+        <v>465755</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>506648</v>
+        <v>508222</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7907588838070772</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7527456730186013</v>
+        <v>0.7558521905541585</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8222144642749257</v>
+        <v>0.8247692803113948</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>916</v>
@@ -3487,19 +3487,19 @@
         <v>1041479</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1017880</v>
+        <v>1013860</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1071408</v>
+        <v>1068386</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8461696574821745</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8269958426019923</v>
+        <v>0.8237301425677447</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8704855414867125</v>
+        <v>0.8680304211253068</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>57230</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>44408</v>
+        <v>43741</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>71148</v>
+        <v>71885</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1332706356100734</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1034118998621812</v>
+        <v>0.1018588502026176</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1656810618250802</v>
+        <v>0.1673968851730421</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>117</v>
@@ -3612,19 +3612,19 @@
         <v>129882</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>111725</v>
+        <v>109821</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>148909</v>
+        <v>150051</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2900436800979965</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2494982847286739</v>
+        <v>0.2452452310391992</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.332535149754729</v>
+        <v>0.3350858831521225</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>172</v>
@@ -3633,19 +3633,19 @@
         <v>187112</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>161759</v>
+        <v>162051</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>211899</v>
+        <v>213471</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2132987200909232</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1843971833454864</v>
+        <v>0.1847301602572556</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2415552955660646</v>
+        <v>0.2433466546860714</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>372199</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>358281</v>
+        <v>357544</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>385021</v>
+        <v>385688</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8667293643899266</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8343189381749198</v>
+        <v>0.832603114826958</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8965881001378189</v>
+        <v>0.8981411497973825</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>289</v>
@@ -3683,19 +3683,19 @@
         <v>317918</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>298891</v>
+        <v>297749</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>336075</v>
+        <v>337979</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7099563199020035</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.667464850245271</v>
+        <v>0.6649141168478776</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.750501715271326</v>
+        <v>0.7547547689608007</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>627</v>
@@ -3704,19 +3704,19 @@
         <v>690117</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>665330</v>
+        <v>663758</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>715470</v>
+        <v>715178</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7867012799090768</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7584447044339354</v>
+        <v>0.7566533453139286</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8156028166545137</v>
+        <v>0.8152698397427444</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>64725</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>50617</v>
+        <v>51547</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>80873</v>
+        <v>79525</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2089351439433067</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1633929317463445</v>
+        <v>0.1663964188780046</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2610601436535558</v>
+        <v>0.2567084404205632</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>118</v>
@@ -3829,19 +3829,19 @@
         <v>122133</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>105086</v>
+        <v>105281</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>139357</v>
+        <v>139670</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3450110853137596</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2968558202071322</v>
+        <v>0.2974063112427503</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3936679834459382</v>
+        <v>0.3945522103288854</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>176</v>
@@ -3850,19 +3850,19 @@
         <v>186858</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>161689</v>
+        <v>164346</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>209987</v>
+        <v>210801</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2815046407234073</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2435871280666072</v>
+        <v>0.2475909846445697</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3163499223728191</v>
+        <v>0.3175756524158035</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>245061</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>228913</v>
+        <v>230261</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>259169</v>
+        <v>258239</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7910648560566933</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.738939856346444</v>
+        <v>0.7432915595794367</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8366070682536556</v>
+        <v>0.8336035811219953</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>226</v>
@@ -3900,19 +3900,19 @@
         <v>231863</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>214639</v>
+        <v>214326</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>248910</v>
+        <v>248715</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6549889146862404</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.606332016554062</v>
+        <v>0.6054477896711148</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7031441797928679</v>
+        <v>0.7025936887572499</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>450</v>
@@ -3921,19 +3921,19 @@
         <v>476924</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>453795</v>
+        <v>452981</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>502093</v>
+        <v>499436</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7184953592765928</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6836500776271807</v>
+        <v>0.6824243475841965</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7564128719333927</v>
+        <v>0.7524090153554303</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>64318</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>49818</v>
+        <v>49973</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>80122</v>
+        <v>78627</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.257426944114853</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1993899513163752</v>
+        <v>0.2000124789263761</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3206793335600283</v>
+        <v>0.3146969268921866</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>151</v>
@@ -4046,19 +4046,19 @@
         <v>167060</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>147446</v>
+        <v>146526</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>187442</v>
+        <v>187907</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4294830791454656</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.379060014760304</v>
+        <v>0.3766942299459282</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4818812431973685</v>
+        <v>0.4830786745207887</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>210</v>
@@ -4067,19 +4067,19 @@
         <v>231378</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>207928</v>
+        <v>206472</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>256005</v>
+        <v>255895</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3621907131033384</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.325482600849231</v>
+        <v>0.3232035367838667</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4007409270372048</v>
+        <v>0.4005675316439718</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>185533</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>169729</v>
+        <v>171224</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>200033</v>
+        <v>199878</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.742573055885147</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6793206664399717</v>
+        <v>0.6853030731078131</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.800610048683625</v>
+        <v>0.7999875210736239</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>199</v>
@@ -4117,19 +4117,19 @@
         <v>221919</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>201537</v>
+        <v>201072</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>241533</v>
+        <v>242453</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5705169208545344</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5181187568026314</v>
+        <v>0.5169213254792111</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.620939985239696</v>
+        <v>0.6233057700540714</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>362</v>
@@ -4138,19 +4138,19 @@
         <v>407452</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>382825</v>
+        <v>382935</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>430902</v>
+        <v>432358</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6378092868966616</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5992590729627952</v>
+        <v>0.599432468356028</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6745173991507689</v>
+        <v>0.6767964632161332</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>354278</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>317820</v>
+        <v>319317</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>387141</v>
+        <v>394580</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.103385153171571</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09274593235727234</v>
+        <v>0.09318274472827312</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1129752850268261</v>
+        <v>0.1151460369751412</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>787</v>
@@ -4263,19 +4263,19 @@
         <v>848283</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>801636</v>
+        <v>797929</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>899135</v>
+        <v>901168</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2383948661568715</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2252857143639886</v>
+        <v>0.2242438238234551</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2526860647068042</v>
+        <v>0.2532573445066812</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1119</v>
@@ -4284,19 +4284,19 @@
         <v>1202561</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1135639</v>
+        <v>1136064</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1265557</v>
+        <v>1264872</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1721611359910063</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1625804162837814</v>
+        <v>0.1626412722410276</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1811797765770529</v>
+        <v>0.1810818175281363</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>3072501</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3039638</v>
+        <v>3032199</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3108959</v>
+        <v>3107462</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.896614846828429</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8870247149731739</v>
+        <v>0.8848539630248589</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9072540676427276</v>
+        <v>0.9068172552717269</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2511</v>
@@ -4334,19 +4334,19 @@
         <v>2710026</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2659174</v>
+        <v>2657141</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2756673</v>
+        <v>2760380</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7616051338431286</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7473139352931958</v>
+        <v>0.7467426554933188</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7747142856360114</v>
+        <v>0.775756176176545</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5388</v>
@@ -4355,19 +4355,19 @@
         <v>5782527</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5719531</v>
+        <v>5720216</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5849449</v>
+        <v>5849024</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8278388640089938</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.818820223422947</v>
+        <v>0.8189181824718638</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8374195837162186</v>
+        <v>0.8373587277589727</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>6128</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2198</v>
+        <v>2166</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12789</v>
+        <v>13335</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01460949347411223</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005239363739949204</v>
+        <v>0.005163875866681362</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03048817053500561</v>
+        <v>0.03179106688267953</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>39</v>
@@ -4723,19 +4723,19 @@
         <v>38941</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>28710</v>
+        <v>28264</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>51723</v>
+        <v>50769</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09839774099432468</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07254530560838705</v>
+        <v>0.07141915680973585</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1306948843754508</v>
+        <v>0.1282837153180832</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>45</v>
@@ -4744,19 +4744,19 @@
         <v>45070</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>32508</v>
+        <v>33526</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>58821</v>
+        <v>59035</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05528526128792732</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03987659007836139</v>
+        <v>0.04112473727753965</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07215369691826345</v>
+        <v>0.07241651129211214</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>413335</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>406674</v>
+        <v>406128</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>417265</v>
+        <v>417297</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9853905065258878</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9695118294649946</v>
+        <v>0.968208933117321</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9947606362600508</v>
+        <v>0.9948361241333187</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>365</v>
@@ -4794,19 +4794,19 @@
         <v>356814</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>344032</v>
+        <v>344986</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>367045</v>
+        <v>367491</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9016022590056754</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8693051156245494</v>
+        <v>0.871716284681917</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.927454694391613</v>
+        <v>0.9285808431902641</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>752</v>
@@ -4815,19 +4815,19 @@
         <v>770148</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>756397</v>
+        <v>756183</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>782710</v>
+        <v>781692</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9447147387120727</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9278463030817367</v>
+        <v>0.9275834887078878</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9601234099216387</v>
+        <v>0.95887526272246</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>21828</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13064</v>
+        <v>14018</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>33717</v>
+        <v>32959</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03696505242388126</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02212425229445589</v>
+        <v>0.02373979827930901</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05709984189349488</v>
+        <v>0.05581530990305746</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>78</v>
@@ -4940,19 +4940,19 @@
         <v>76499</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>62303</v>
+        <v>60030</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>92968</v>
+        <v>92061</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.135746001884159</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.110556219459722</v>
+        <v>0.1065217276741332</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1649698468528075</v>
+        <v>0.1633611570962179</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>97</v>
@@ -4961,19 +4961,19 @@
         <v>98327</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>81826</v>
+        <v>81160</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>119250</v>
+        <v>118396</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08520201367040803</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07090362018011712</v>
+        <v>0.07032650762012271</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1033330084061948</v>
+        <v>0.10259235042225</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>568668</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>556779</v>
+        <v>557537</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>577432</v>
+        <v>576478</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9630349475761187</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.942900158106505</v>
+        <v>0.9441846900969425</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.977875747705544</v>
+        <v>0.9762602017206909</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>501</v>
@@ -5011,19 +5011,19 @@
         <v>487045</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>470576</v>
+        <v>471483</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>501241</v>
+        <v>503514</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.864253998115841</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8350301531471924</v>
+        <v>0.8366388429037821</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8894437805402778</v>
+        <v>0.8934782723258667</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1049</v>
@@ -5032,19 +5032,19 @@
         <v>1055713</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1034790</v>
+        <v>1035644</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1072214</v>
+        <v>1072880</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.914797986329592</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8966669915938051</v>
+        <v>0.89740764957775</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9290963798198827</v>
+        <v>0.9296734923798772</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>47380</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>34992</v>
+        <v>34542</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>62418</v>
+        <v>62826</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07081242374753094</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05229707524184642</v>
+        <v>0.05162446023275981</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09328715888084547</v>
+        <v>0.093896056229203</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>81</v>
@@ -5157,19 +5157,19 @@
         <v>81059</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>66087</v>
+        <v>65285</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>98524</v>
+        <v>98367</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.122559329476293</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09992132984675256</v>
+        <v>0.09870972521114427</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1489654946760491</v>
+        <v>0.1487293234581735</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>125</v>
@@ -5178,19 +5178,19 @@
         <v>128439</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>108152</v>
+        <v>108795</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>152821</v>
+        <v>153134</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09653593485265163</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08128740355994613</v>
+        <v>0.08177132912266213</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1148615388658828</v>
+        <v>0.1150963985470688</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>621717</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>606679</v>
+        <v>606271</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>634105</v>
+        <v>634555</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9291875762524691</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9067128411191547</v>
+        <v>0.9061039437707972</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9477029247581535</v>
+        <v>0.9483755397672403</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>584</v>
@@ -5228,19 +5228,19 @@
         <v>580327</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>562862</v>
+        <v>563019</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>595299</v>
+        <v>596101</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.877440670523707</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8510345053239508</v>
+        <v>0.8512706765418263</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9000786701532473</v>
+        <v>0.9012902747888555</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1178</v>
@@ -5249,19 +5249,19 @@
         <v>1202044</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1177662</v>
+        <v>1177349</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1222331</v>
+        <v>1221688</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9034640651473483</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8851384611341171</v>
+        <v>0.8849036014529313</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9187125964400537</v>
+        <v>0.9182286708773379</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>63200</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>48678</v>
+        <v>48683</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>80582</v>
+        <v>80458</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09782515703460784</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07534674894639307</v>
+        <v>0.07535540819648757</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1247303888974423</v>
+        <v>0.1245392699673749</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>102</v>
@@ -5374,19 +5374,19 @@
         <v>109890</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>91068</v>
+        <v>89981</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>130184</v>
+        <v>130118</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1693015232886134</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1403042995839183</v>
+        <v>0.1386296066958871</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.200567822792275</v>
+        <v>0.2004666022837265</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>160</v>
@@ -5395,19 +5395,19 @@
         <v>173089</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>149533</v>
+        <v>147563</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>199965</v>
+        <v>200221</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1336469136399567</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1154581271578718</v>
+        <v>0.1139370935299966</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1543979132764463</v>
+        <v>0.1545958145478143</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>582848</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>565466</v>
+        <v>565590</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>597370</v>
+        <v>597365</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9021748429653922</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8752696111025574</v>
+        <v>0.8754607300326249</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9246532510536064</v>
+        <v>0.9246445918035122</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>500</v>
@@ -5445,19 +5445,19 @@
         <v>539187</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>518893</v>
+        <v>518959</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>558009</v>
+        <v>559096</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8306984767113866</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7994321772077253</v>
+        <v>0.7995333977162735</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8596957004160818</v>
+        <v>0.8613703933041131</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1024</v>
@@ -5466,19 +5466,19 @@
         <v>1122036</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1095160</v>
+        <v>1094904</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1145592</v>
+        <v>1147562</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8663530863600433</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8456020867235537</v>
+        <v>0.8454041854521857</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8845418728421283</v>
+        <v>0.8860629064700034</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>72324</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>56590</v>
+        <v>54893</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>90004</v>
+        <v>89181</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1513316588005698</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1184084141113894</v>
+        <v>0.1148591797732865</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1883250729723441</v>
+        <v>0.1866028638987128</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>107</v>
@@ -5591,19 +5591,19 @@
         <v>123129</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>103550</v>
+        <v>104163</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>145556</v>
+        <v>146278</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.247819733202444</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2084131025762515</v>
+        <v>0.2096464059439094</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2929578452140321</v>
+        <v>0.2944110966633924</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>170</v>
@@ -5612,19 +5612,19 @@
         <v>195453</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>172149</v>
+        <v>169764</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>224147</v>
+        <v>220914</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2005126460716458</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1766050642482329</v>
+        <v>0.1741590083068545</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2299490847244271</v>
+        <v>0.226632879389737</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>405594</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>387914</v>
+        <v>388737</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>421328</v>
+        <v>423025</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8486683411994301</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8116749270276558</v>
+        <v>0.8133971361012872</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8815915858886106</v>
+        <v>0.8851408202267134</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>326</v>
@@ -5662,19 +5662,19 @@
         <v>373720</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>351293</v>
+        <v>350571</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>393299</v>
+        <v>392686</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.752180266797556</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7070421547859679</v>
+        <v>0.7055889033366076</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7915868974237482</v>
+        <v>0.7903535940560904</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>687</v>
@@ -5683,19 +5683,19 @@
         <v>779314</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>750620</v>
+        <v>753853</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>802618</v>
+        <v>805003</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7994873539283542</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.770050915275573</v>
+        <v>0.7733671206102627</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8233949357517679</v>
+        <v>0.8258409916931453</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>52413</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>39673</v>
+        <v>39163</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>66661</v>
+        <v>66181</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1567688878382948</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1186651551021556</v>
+        <v>0.1171377717604376</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.199387515034825</v>
+        <v>0.1979509245291882</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>89</v>
@@ -5808,19 +5808,19 @@
         <v>91573</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>75646</v>
+        <v>75492</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>109334</v>
+        <v>109433</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2424084518997848</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2002466120245651</v>
+        <v>0.1998399082200343</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2894266906242935</v>
+        <v>0.2896875812991007</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>138</v>
@@ -5829,19 +5829,19 @@
         <v>143985</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>123785</v>
+        <v>124909</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>166543</v>
+        <v>165378</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2022003393178467</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1738325107081548</v>
+        <v>0.1754116044635424</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.233878939218265</v>
+        <v>0.2322419907524382</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>281917</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>267669</v>
+        <v>268149</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>294657</v>
+        <v>295167</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8432311121617052</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.800612484965175</v>
+        <v>0.8020490754708118</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8813348448978444</v>
+        <v>0.8828622282395624</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>265</v>
@@ -5879,19 +5879,19 @@
         <v>286189</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>268428</v>
+        <v>268329</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>302116</v>
+        <v>302270</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7575915481002151</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7105733093757064</v>
+        <v>0.7103124187008992</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7997533879754347</v>
+        <v>0.8001600917799657</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>541</v>
@@ -5900,19 +5900,19 @@
         <v>568107</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>545549</v>
+        <v>546714</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>588307</v>
+        <v>587183</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7977996606821532</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7661210607817349</v>
+        <v>0.7677580092475618</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8261674892918448</v>
+        <v>0.8245883955364576</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>58419</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>47504</v>
+        <v>45680</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>72832</v>
+        <v>71277</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2273114045933127</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1848403100972981</v>
+        <v>0.1777463095143021</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2833941294933123</v>
+        <v>0.2773436610075959</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>98</v>
@@ -6025,19 +6025,19 @@
         <v>130090</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>109549</v>
+        <v>108205</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>151388</v>
+        <v>149392</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3250879649936672</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2737580000396989</v>
+        <v>0.2703979650935142</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3783091675910692</v>
+        <v>0.3733216096525183</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>166</v>
@@ -6046,19 +6046,19 @@
         <v>188509</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>165290</v>
+        <v>166376</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>214915</v>
+        <v>215766</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2868505298288602</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2515186125136357</v>
+        <v>0.2531709464529839</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3270331304779409</v>
+        <v>0.3283269780348458</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>198579</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>184166</v>
+        <v>185721</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>209494</v>
+        <v>211318</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7726885954066873</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.716605870506688</v>
+        <v>0.7226563389924042</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8151596899027024</v>
+        <v>0.8222536904856983</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>203</v>
@@ -6096,19 +6096,19 @@
         <v>270079</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>248781</v>
+        <v>250777</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>290620</v>
+        <v>291964</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6749120350063328</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6216908324089307</v>
+        <v>0.6266783903474815</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.726241999960301</v>
+        <v>0.7296020349064857</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>437</v>
@@ -6117,19 +6117,19 @@
         <v>468658</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>442252</v>
+        <v>441401</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>491877</v>
+        <v>490791</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7131494701711397</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6729668695220589</v>
+        <v>0.6716730219651541</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7484813874863641</v>
+        <v>0.7468290535470159</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>321691</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>288164</v>
+        <v>287132</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>357070</v>
+        <v>356121</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.09477255299218749</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08489511817318612</v>
+        <v>0.08459110705968514</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1051954841745652</v>
+        <v>0.104915893938298</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>594</v>
@@ -6242,19 +6242,19 @@
         <v>651181</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>603823</v>
+        <v>605861</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>697543</v>
+        <v>703109</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1837136657317105</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1703530002200377</v>
+        <v>0.1709277758779724</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1967936456061708</v>
+        <v>0.1983637503367362</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>901</v>
@@ -6263,19 +6263,19 @@
         <v>972872</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>911334</v>
+        <v>909429</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1031776</v>
+        <v>1026243</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1402056702677319</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1313371026992236</v>
+        <v>0.1310625261834298</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1486946617825156</v>
+        <v>0.1478971751330503</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>3072659</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3037280</v>
+        <v>3038229</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3106186</v>
+        <v>3107218</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9052274470078125</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8948045158254349</v>
+        <v>0.8950841060617026</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9151048818268138</v>
+        <v>0.9154088929403151</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2744</v>
@@ -6313,19 +6313,19 @@
         <v>2893361</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2846999</v>
+        <v>2841433</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2940719</v>
+        <v>2938681</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8162863342682896</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8032063543938291</v>
+        <v>0.8016362496632639</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8296469997799623</v>
+        <v>0.8290722241220274</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5668</v>
@@ -6334,19 +6334,19 @@
         <v>5966020</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5907116</v>
+        <v>5912649</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6027558</v>
+        <v>6029463</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8597943297322681</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8513053382174838</v>
+        <v>0.8521028248669494</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8686628973007764</v>
+        <v>0.8689374738165702</v>
       </c>
     </row>
     <row r="27">
@@ -6681,19 +6681,19 @@
         <v>33334</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16981</v>
+        <v>18282</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>57637</v>
+        <v>57364</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.08174173429919501</v>
+        <v>0.08174173429919503</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04164064940654064</v>
+        <v>0.04483112911131621</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.141339222261059</v>
+        <v>0.1406692098856527</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>47</v>
@@ -6702,19 +6702,19 @@
         <v>89779</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>68361</v>
+        <v>67648</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>113277</v>
+        <v>114452</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2476589026561385</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1885744995808398</v>
+        <v>0.1866101745459474</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3124789376392606</v>
+        <v>0.3157187244782069</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>59</v>
@@ -6723,19 +6723,19 @@
         <v>123113</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>96918</v>
+        <v>94630</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>158620</v>
+        <v>153891</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1598237374590723</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1258177988600025</v>
+        <v>0.1228472316755476</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2059187205912037</v>
+        <v>0.1997790988280443</v>
       </c>
     </row>
     <row r="5">
@@ -6752,19 +6752,19 @@
         <v>374459</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>350156</v>
+        <v>350429</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>390812</v>
+        <v>389511</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.918258265700805</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8586607777389428</v>
+        <v>0.859330790114347</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9583593505934596</v>
+        <v>0.9551688708886834</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>160</v>
@@ -6773,19 +6773,19 @@
         <v>272733</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>249235</v>
+        <v>248060</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>294151</v>
+        <v>294864</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.7523410973438615</v>
+        <v>0.7523410973438612</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6875210623607395</v>
+        <v>0.684281275521793</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8114255004191602</v>
+        <v>0.8133898254540524</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>320</v>
@@ -6794,19 +6794,19 @@
         <v>647192</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>611685</v>
+        <v>616414</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>673387</v>
+        <v>675675</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8401762625409278</v>
+        <v>0.8401762625409277</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7940812794087965</v>
+        <v>0.800220901171956</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8741822011399978</v>
+        <v>0.8771527683244525</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>47926</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>32829</v>
+        <v>33010</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>65950</v>
+        <v>67150</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1004959498607972</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06884000654427387</v>
+        <v>0.06921840953966915</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1382908872467825</v>
+        <v>0.140807275674844</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>116</v>
@@ -6919,19 +6919,19 @@
         <v>128614</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>108773</v>
+        <v>108105</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>149438</v>
+        <v>148565</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2563390713292397</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2167948467507563</v>
+        <v>0.215463683926275</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2978433027991188</v>
+        <v>0.2961033909042796</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>148</v>
@@ -6940,19 +6940,19 @@
         <v>176539</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>149617</v>
+        <v>149435</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>205519</v>
+        <v>203624</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.1803955495230893</v>
+        <v>0.1803955495230894</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1528852671218451</v>
+        <v>0.1526990122487536</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2100080745699037</v>
+        <v>0.2080715405534397</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>428964</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>410940</v>
+        <v>409740</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>444061</v>
+        <v>443880</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8995040501392026</v>
+        <v>0.8995040501392028</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8617091127532165</v>
+        <v>0.8591927243251559</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9311599934557255</v>
+        <v>0.9307815904603309</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>345</v>
@@ -6990,19 +6990,19 @@
         <v>373119</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>352295</v>
+        <v>353168</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>392960</v>
+        <v>393628</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7436609286707603</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7021566972008816</v>
+        <v>0.7038966090957205</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7832051532492437</v>
+        <v>0.7845363160737253</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>615</v>
@@ -7011,19 +7011,19 @@
         <v>802084</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>773104</v>
+        <v>774999</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>829006</v>
+        <v>829188</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8196044504769104</v>
+        <v>0.8196044504769108</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7899919254300963</v>
+        <v>0.7919284594465603</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.847114732878155</v>
+        <v>0.8473009877512462</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>85519</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>68232</v>
+        <v>68046</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>106283</v>
+        <v>105794</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1377476009007096</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1099026584335308</v>
+        <v>0.109603432907455</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1711938447133462</v>
+        <v>0.1704047380910308</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>264</v>
@@ -7136,19 +7136,19 @@
         <v>192323</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>173791</v>
+        <v>172567</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>212593</v>
+        <v>211836</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3086086421236942</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2788725536610973</v>
+        <v>0.2769077255901984</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3411351557295717</v>
+        <v>0.3399207348128551</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>340</v>
@@ -7157,19 +7157,19 @@
         <v>277841</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>249687</v>
+        <v>252225</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>302958</v>
+        <v>306014</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.2233399003932985</v>
+        <v>0.2233399003932984</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2007079543921641</v>
+        <v>0.2027483823860462</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2435296050602934</v>
+        <v>0.2459860658967085</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>535318</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>514554</v>
+        <v>515043</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>552605</v>
+        <v>552791</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8622523990992905</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8288061552866539</v>
+        <v>0.8295952619089692</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8900973415664691</v>
+        <v>0.8903965670925448</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>584</v>
@@ -7207,19 +7207,19 @@
         <v>430870</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>410600</v>
+        <v>411357</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>449402</v>
+        <v>450626</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6913913578763058</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6588648442704286</v>
+        <v>0.660079265187145</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7211274463389028</v>
+        <v>0.7230922744098016</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1054</v>
@@ -7228,19 +7228,19 @@
         <v>966188</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>941071</v>
+        <v>938015</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>994342</v>
+        <v>991804</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7766600996067015</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7564703949397066</v>
+        <v>0.7540139341032916</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7992920456078358</v>
+        <v>0.7972516176139539</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>163571</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>141500</v>
+        <v>139850</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>185199</v>
+        <v>187142</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.233466670829318</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.201964614736947</v>
+        <v>0.1996096091550773</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2643374876468098</v>
+        <v>0.2671097823558671</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>426</v>
@@ -7353,19 +7353,19 @@
         <v>276660</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>256953</v>
+        <v>256881</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>296882</v>
+        <v>297358</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.3754451610421302</v>
+        <v>0.3754451610421301</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3487012395902921</v>
+        <v>0.3486029633391242</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4028871320726478</v>
+        <v>0.4035335235098216</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>583</v>
@@ -7374,19 +7374,19 @@
         <v>440231</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>409448</v>
+        <v>410416</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>473514</v>
+        <v>472650</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.3062470240503092</v>
+        <v>0.3062470240503093</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2848325459495474</v>
+        <v>0.2855056500599906</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.32940021699177</v>
+        <v>0.3287989404710178</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>537046</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>515418</v>
+        <v>513475</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>559117</v>
+        <v>560767</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.766533329170682</v>
+        <v>0.7665333291706818</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7356625123531901</v>
+        <v>0.7328902176441321</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7980353852630531</v>
+        <v>0.8003903908449227</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>715</v>
@@ -7424,19 +7424,19 @@
         <v>460226</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>440004</v>
+        <v>439528</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>479933</v>
+        <v>480005</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.62455483895787</v>
+        <v>0.6245548389578699</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.597112867927352</v>
+        <v>0.5964664764901784</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.651298760409708</v>
+        <v>0.6513970366608759</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1223</v>
@@ -7445,19 +7445,19 @@
         <v>997273</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>963990</v>
+        <v>964854</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1028056</v>
+        <v>1027088</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6937529759496905</v>
+        <v>0.6937529759496907</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.67059978300823</v>
+        <v>0.671201059528982</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7151674540504529</v>
+        <v>0.7144943499400094</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>176325</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>156562</v>
+        <v>156586</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>199124</v>
+        <v>197090</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.2893671237427912</v>
+        <v>0.2893671237427911</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2569348098836489</v>
+        <v>0.2569744731274871</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3267838333074366</v>
+        <v>0.3234457815991601</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>434</v>
@@ -7570,19 +7570,19 @@
         <v>269048</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>250213</v>
+        <v>249859</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>288232</v>
+        <v>286721</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.4418924715525773</v>
+        <v>0.4418924715525774</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4109573696532934</v>
+        <v>0.4103759273132076</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4734004490091743</v>
+        <v>0.4709176418528332</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>627</v>
@@ -7591,19 +7591,19 @@
         <v>445374</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>417210</v>
+        <v>415229</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>474582</v>
+        <v>475166</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.3655990570208165</v>
+        <v>0.3655990570208164</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3424799556885608</v>
+        <v>0.3408538866720711</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3895757987219456</v>
+        <v>0.3900555390552566</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>433021</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>410222</v>
+        <v>412256</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>452784</v>
+        <v>452760</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7106328762572088</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6732161666925631</v>
+        <v>0.6765542184008398</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7430651901163511</v>
+        <v>0.7430255268725127</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>568</v>
@@ -7641,19 +7641,19 @@
         <v>339807</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>320623</v>
+        <v>322134</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>358642</v>
+        <v>358996</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.5581075284474225</v>
+        <v>0.5581075284474226</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5265995509908256</v>
+        <v>0.5290823581471669</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5890426303467068</v>
+        <v>0.5896240726867926</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1038</v>
@@ -7662,19 +7662,19 @@
         <v>772828</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>743620</v>
+        <v>743036</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>800992</v>
+        <v>802973</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6344009429791835</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6104242012780543</v>
+        <v>0.6099444609447434</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6575200443114394</v>
+        <v>0.6591461133279291</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>120491</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>105918</v>
+        <v>104905</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>135989</v>
+        <v>135900</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2959889052181426</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2601885644431171</v>
+        <v>0.2577022498537449</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3340585432824811</v>
+        <v>0.3338410252205773</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>390</v>
@@ -7787,19 +7787,19 @@
         <v>214886</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>199336</v>
+        <v>198289</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>230579</v>
+        <v>229380</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4893052443039447</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4538958247839639</v>
+        <v>0.4515123363405617</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5250393295493674</v>
+        <v>0.5223071760658167</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>561</v>
@@ -7808,19 +7808,19 @@
         <v>335377</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>314325</v>
+        <v>313285</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>358682</v>
+        <v>358969</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3963119885486698</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3714340131700958</v>
+        <v>0.3702050051350071</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4238502771673167</v>
+        <v>0.4241893684237357</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>286589</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>271091</v>
+        <v>271180</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>301162</v>
+        <v>302175</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7040110947818574</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.665941456717519</v>
+        <v>0.6661589747794227</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.739811435556883</v>
+        <v>0.7422977501462551</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>437</v>
@@ -7858,19 +7858,19 @@
         <v>224280</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>208587</v>
+        <v>209786</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>239830</v>
+        <v>240877</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.5106947556960554</v>
+        <v>0.5106947556960553</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4749606704506327</v>
+        <v>0.4776928239341834</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5461041752160362</v>
+        <v>0.5484876636594382</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>836</v>
@@ -7879,19 +7879,19 @@
         <v>510869</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>487564</v>
+        <v>487277</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>531921</v>
+        <v>532961</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6036880114513302</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5761497228326831</v>
+        <v>0.5758106315762641</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6285659868299041</v>
+        <v>0.6297949948649925</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>130245</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>115871</v>
+        <v>116063</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>143960</v>
+        <v>145217</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4198778925177094</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3735396028561044</v>
+        <v>0.3741584353090545</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4640914254140751</v>
+        <v>0.468142015112485</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>527</v>
@@ -8004,19 +8004,19 @@
         <v>277555</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>262993</v>
+        <v>262050</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>293054</v>
+        <v>292441</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.5973940947888878</v>
+        <v>0.5973940947888877</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5660518971018342</v>
+        <v>0.5640231821615352</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6307534798861202</v>
+        <v>0.629434084039254</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>718</v>
@@ -8025,19 +8025,19 @@
         <v>407800</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>383072</v>
+        <v>386704</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>426594</v>
+        <v>430123</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5263245103583352</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4944102028058969</v>
+        <v>0.4990965634012499</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5505805757913855</v>
+        <v>0.5551359211989352</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>179953</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>166238</v>
+        <v>164981</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>194327</v>
+        <v>194135</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5801221074822904</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5359085745859253</v>
+        <v>0.5318579848875151</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6264603971438975</v>
+        <v>0.6258415646909455</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>354</v>
@@ -8075,19 +8075,19 @@
         <v>187054</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>171555</v>
+        <v>172168</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>201616</v>
+        <v>202559</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.4026059052111123</v>
+        <v>0.4026059052111122</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3692465201138795</v>
+        <v>0.370565915960746</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4339481028981658</v>
+        <v>0.4359768178384649</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>621</v>
@@ -8096,19 +8096,19 @@
         <v>367007</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>348213</v>
+        <v>344684</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>391735</v>
+        <v>388103</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4736754896416648</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4494194242086145</v>
+        <v>0.4448640788010647</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5055897971941031</v>
+        <v>0.5009034365987501</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>757410</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>705171</v>
+        <v>707381</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>810403</v>
+        <v>806208</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2143960285105985</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1996089109301466</v>
+        <v>0.2002346703699719</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.229396527032091</v>
+        <v>0.2282088576421719</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2204</v>
@@ -8221,19 +8221,19 @@
         <v>1448866</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1394836</v>
+        <v>1396957</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1498408</v>
+        <v>1497184</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.3877129738681967</v>
+        <v>0.3877129738681966</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3732548666527935</v>
+        <v>0.3738224161211947</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4009704350426853</v>
+        <v>0.4006428576963683</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3036</v>
@@ -8242,19 +8242,19 @@
         <v>2206276</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2130766</v>
+        <v>2125485</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2284622</v>
+        <v>2269865</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.3034885700049371</v>
+        <v>0.303488570004937</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2931016888335747</v>
+        <v>0.2923752607288115</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3142656934689764</v>
+        <v>0.3122357271449897</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>2775352</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2722359</v>
+        <v>2726554</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2827591</v>
+        <v>2825381</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7856039714894016</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.770603472967909</v>
+        <v>0.7717911423578282</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8003910890698536</v>
+        <v>0.7997653296300281</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3163</v>
@@ -8292,19 +8292,19 @@
         <v>2288088</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2238546</v>
+        <v>2239770</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2342118</v>
+        <v>2339997</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.6122870261318034</v>
+        <v>0.6122870261318033</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5990295649573146</v>
+        <v>0.5993571423036316</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6267451333472064</v>
+        <v>0.6261775838788051</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5707</v>
@@ -8313,19 +8313,19 @@
         <v>5063440</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4985094</v>
+        <v>4999851</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5138950</v>
+        <v>5144231</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.6965114299950629</v>
+        <v>0.6965114299950628</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6857343065310236</v>
+        <v>0.6877642728550101</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7068983111664252</v>
+        <v>0.7076247392711883</v>
       </c>
     </row>
     <row r="27">
